--- a/downloaded_files/CMPS458_Lecture-35556.xlsx
+++ b/downloaded_files/CMPS458_Lecture-35556.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,6 +78,15 @@
     <x:t>Amira Mohamed Essam Ahmed Abdelghany</x:t>
   </x:si>
   <x:si>
+    <x:t>4220112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>انس علاء محمد ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Anas Alaa Mohamed  Ibrahim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210205</x:t>
   </x:si>
   <x:si>
@@ -150,6 +159,15 @@
     <x:t>Ziad Ahmed Mohamed Mahdy Asar</x:t>
   </x:si>
   <x:si>
+    <x:t>1210137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد هشام فهمي محمد سليمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Hesham Fahmy Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210238</x:t>
   </x:si>
   <x:si>
@@ -177,15 +195,6 @@
     <x:t>Aisha Tawfik Mahmoud Tawfik Esmat</x:t>
   </x:si>
   <x:si>
-    <x:t>1210248</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن احمد محمد احمد محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ahmed Mohamed Ahmed Mahmoud</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210014</x:t>
   </x:si>
   <x:si>
@@ -346,6 +355,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Mamdouh Sayed Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد نبيل السيد الطوخى حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Nabil Elsayed Eltoukhy</x:t>
   </x:si>
   <x:si>
     <x:t>4220141</x:t>
@@ -569,7 +587,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -869,7 +887,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T48"/>
+  <x:dimension ref="A1:T50"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1120,7 +1138,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4146233796</x:v>
+        <x:v>45927.4698664699</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1152,7 +1170,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4146423958</x:v>
+        <x:v>45906.4146233796</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1184,7 +1202,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.3421239236</x:v>
+        <x:v>45906.4146423958</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1216,7 +1234,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4144715278</x:v>
+        <x:v>45912.3421239236</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1248,7 +1266,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4141525463</x:v>
+        <x:v>45906.4144715278</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1280,7 +1298,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4144362268</x:v>
+        <x:v>45906.4141525463</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1312,7 +1330,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4143678588</x:v>
+        <x:v>45906.4144362268</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1344,7 +1362,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4145456019</x:v>
+        <x:v>45906.4143678588</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1376,7 +1394,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.3426062847</x:v>
+        <x:v>45906.4145456019</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1408,7 +1426,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45927.5026321412</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1440,7 +1458,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.7091758102</x:v>
+        <x:v>45912.3426062847</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1472,7 +1490,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.1112114583</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1504,7 +1522,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.342949537</x:v>
+        <x:v>45914.7091758102</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1536,7 +1554,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4160912384</x:v>
+        <x:v>45912.342949537</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1568,7 +1586,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4145929051</x:v>
+        <x:v>45906.4160912384</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1600,7 +1618,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4146315625</x:v>
+        <x:v>45906.4145929051</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1632,7 +1650,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4146170486</x:v>
+        <x:v>45906.4146315625</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1664,7 +1682,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4146991898</x:v>
+        <x:v>45906.4146170486</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1696,7 +1714,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4192629282</x:v>
+        <x:v>45906.4146991898</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1728,7 +1746,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4251809375</x:v>
+        <x:v>45906.4192629282</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1760,7 +1778,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.7096258912</x:v>
+        <x:v>45906.4251809375</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1792,7 +1810,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.414346412</x:v>
+        <x:v>45914.7096258912</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1824,7 +1842,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45918.0915960648</x:v>
+        <x:v>45906.414346412</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1856,7 +1874,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.4148167014</x:v>
+        <x:v>45918.0915960648</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1888,7 +1906,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.0577082523</x:v>
+        <x:v>45909.4148167014</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1920,7 +1938,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45914.0128757292</x:v>
+        <x:v>45914.0577082523</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1952,7 +1970,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4143330671</x:v>
+        <x:v>45914.0128757292</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1984,7 +2002,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.3419053588</x:v>
+        <x:v>45906.4143330671</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2016,7 +2034,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4163405093</x:v>
+        <x:v>45912.3419053588</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2048,7 +2066,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.0599210301</x:v>
+        <x:v>45906.4163405093</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2080,7 +2098,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4174892361</x:v>
+        <x:v>45914.0599210301</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2112,7 +2130,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45927.5267324884</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2144,7 +2162,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4145865741</x:v>
+        <x:v>45906.4174892361</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2176,7 +2194,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2208,7 +2226,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.4146067477</x:v>
+        <x:v>45906.4145865741</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2240,7 +2258,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45912.543306169</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2272,7 +2290,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.4142854167</x:v>
+        <x:v>45906.4146067477</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2304,7 +2322,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45912.543306169</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2336,7 +2354,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.414388044</x:v>
+        <x:v>45906.4142854167</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2368,7 +2386,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45912.3415796644</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2400,7 +2418,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45906.414388044</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2432,7 +2450,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45914.0585266204</x:v>
+        <x:v>45912.3415796644</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2449,6 +2467,70 @@
       <x:c r="R48" s="2" t="s"/>
       <x:c r="S48" s="2" t="s"/>
       <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45906.4144973032</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20">
+      <x:c r="A50" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="E50" s="3">
+        <x:v>45914.0585266204</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="2" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="2" t="s"/>
+      <x:c r="Q50" s="2" t="s"/>
+      <x:c r="R50" s="2" t="s"/>
+      <x:c r="S50" s="2" t="s"/>
+      <x:c r="T50" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS458_Lecture-35556.xlsx
+++ b/downloaded_files/CMPS458_Lecture-35556.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -391,6 +391,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan Ahmed Abdelaziz Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210299</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان محمد صلاح الدين امام</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Mohamed Salah Eldin Emam</x:t>
   </x:si>
   <x:si>
     <x:t>1210301</x:t>
@@ -587,7 +596,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -887,7 +896,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T50"/>
+  <x:dimension ref="A1:T51"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2258,7 +2267,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45929.3840627662</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2290,7 +2299,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.4146067477</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2322,7 +2331,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45912.543306169</x:v>
+        <x:v>45906.4146067477</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2354,7 +2363,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.4142854167</x:v>
+        <x:v>45912.543306169</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2386,7 +2395,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45906.4142854167</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2418,7 +2427,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.414388044</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2450,7 +2459,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45912.3415796644</x:v>
+        <x:v>45906.414388044</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2482,7 +2491,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45912.3415796644</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2514,7 +2523,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45914.0585266204</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2531,6 +2540,38 @@
       <x:c r="R50" s="2" t="s"/>
       <x:c r="S50" s="2" t="s"/>
       <x:c r="T50" s="2" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20">
+      <x:c r="A51" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="D51" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="E51" s="3">
+        <x:v>45914.0585266204</x:v>
+      </x:c>
+      <x:c r="F51" s="2" t="s"/>
+      <x:c r="G51" s="2" t="s"/>
+      <x:c r="H51" s="2" t="s"/>
+      <x:c r="I51" s="2" t="s"/>
+      <x:c r="J51" s="2" t="s"/>
+      <x:c r="K51" s="2" t="s"/>
+      <x:c r="L51" s="2" t="s"/>
+      <x:c r="M51" s="2" t="s"/>
+      <x:c r="N51" s="2" t="s"/>
+      <x:c r="O51" s="2" t="s"/>
+      <x:c r="P51" s="2" t="s"/>
+      <x:c r="Q51" s="2" t="s"/>
+      <x:c r="R51" s="2" t="s"/>
+      <x:c r="S51" s="2" t="s"/>
+      <x:c r="T51" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS458_Lecture-35556.xlsx
+++ b/downloaded_files/CMPS458_Lecture-35556.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -454,6 +454,15 @@
   </x:si>
   <x:si>
     <x:t>Noor Ahmed Mostafa Ahmed AlHadidi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور الدين حسن حامد محمد خلف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Eldin Hassan Hamed Khalaf</x:t>
   </x:si>
   <x:si>
     <x:t>1210330</x:t>
@@ -596,7 +605,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E52" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -896,7 +905,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T51"/>
+  <x:dimension ref="A1:T52"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2491,7 +2500,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45912.3415796644</x:v>
+        <x:v>45931.4614775463</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2523,7 +2532,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45912.3415796644</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2555,7 +2564,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45914.0585266204</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2572,6 +2581,38 @@
       <x:c r="R51" s="2" t="s"/>
       <x:c r="S51" s="2" t="s"/>
       <x:c r="T51" s="2" t="s"/>
+    </x:row>
+    <x:row r="52" spans="1:20">
+      <x:c r="A52" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B52" s="2" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="C52" s="2" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="D52" s="2" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="E52" s="3">
+        <x:v>45914.0585266204</x:v>
+      </x:c>
+      <x:c r="F52" s="2" t="s"/>
+      <x:c r="G52" s="2" t="s"/>
+      <x:c r="H52" s="2" t="s"/>
+      <x:c r="I52" s="2" t="s"/>
+      <x:c r="J52" s="2" t="s"/>
+      <x:c r="K52" s="2" t="s"/>
+      <x:c r="L52" s="2" t="s"/>
+      <x:c r="M52" s="2" t="s"/>
+      <x:c r="N52" s="2" t="s"/>
+      <x:c r="O52" s="2" t="s"/>
+      <x:c r="P52" s="2" t="s"/>
+      <x:c r="Q52" s="2" t="s"/>
+      <x:c r="R52" s="2" t="s"/>
+      <x:c r="S52" s="2" t="s"/>
+      <x:c r="T52" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS458_Lecture-35556.xlsx
+++ b/downloaded_files/CMPS458_Lecture-35556.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,15 +67,6 @@
   </x:si>
   <x:si>
     <x:t>Amira Ibrahim Ahmed Ibrahim Mohamed El-Garf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اميره محمد عصام احمد عبدالغني</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amira Mohamed Essam Ahmed Abdelghany</x:t>
   </x:si>
   <x:si>
     <x:t>4220112</x:t>
@@ -605,7 +596,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E52" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -905,7 +896,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T52"/>
+  <x:dimension ref="A1:T51"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1124,7 +1115,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4143751157</x:v>
+        <x:v>45927.4698664699</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1156,7 +1147,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.4698664699</x:v>
+        <x:v>45906.4146233796</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1188,7 +1179,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4146233796</x:v>
+        <x:v>45906.4146423958</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1220,7 +1211,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4146423958</x:v>
+        <x:v>45912.3421239236</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1252,7 +1243,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.3421239236</x:v>
+        <x:v>45906.4144715278</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1284,7 +1275,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4144715278</x:v>
+        <x:v>45906.4141525463</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1316,7 +1307,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4141525463</x:v>
+        <x:v>45906.4144362268</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1348,7 +1339,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4144362268</x:v>
+        <x:v>45906.4143678588</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1380,7 +1371,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4143678588</x:v>
+        <x:v>45906.4145456019</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1412,7 +1403,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4145456019</x:v>
+        <x:v>45927.5026321412</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1444,7 +1435,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.5026321412</x:v>
+        <x:v>45912.3426062847</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1476,7 +1467,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.3426062847</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1508,7 +1499,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45914.7091758102</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1540,7 +1531,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.7091758102</x:v>
+        <x:v>45912.342949537</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1572,7 +1563,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.342949537</x:v>
+        <x:v>45906.4160912384</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1604,7 +1595,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4160912384</x:v>
+        <x:v>45906.4145929051</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1636,7 +1627,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4145929051</x:v>
+        <x:v>45906.4146315625</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1668,7 +1659,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4146315625</x:v>
+        <x:v>45906.4146170486</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1700,7 +1691,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4146170486</x:v>
+        <x:v>45906.4146991898</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1732,7 +1723,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4146991898</x:v>
+        <x:v>45906.4192629282</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1764,7 +1755,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4192629282</x:v>
+        <x:v>45906.4251809375</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1796,7 +1787,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4251809375</x:v>
+        <x:v>45914.7096258912</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1828,7 +1819,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.7096258912</x:v>
+        <x:v>45906.414346412</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1860,7 +1851,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.414346412</x:v>
+        <x:v>45918.0915960648</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1892,7 +1883,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45918.0915960648</x:v>
+        <x:v>45909.4148167014</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1924,7 +1915,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4148167014</x:v>
+        <x:v>45914.0577082523</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1956,7 +1947,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45914.0577082523</x:v>
+        <x:v>45914.0128757292</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1988,7 +1979,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.0128757292</x:v>
+        <x:v>45906.4143330671</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2020,7 +2011,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4143330671</x:v>
+        <x:v>45912.3419053588</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2052,7 +2043,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.3419053588</x:v>
+        <x:v>45906.4163405093</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2084,7 +2075,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4163405093</x:v>
+        <x:v>45914.0599210301</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2116,7 +2107,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.0599210301</x:v>
+        <x:v>45927.5267324884</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2148,7 +2139,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45927.5267324884</x:v>
+        <x:v>45906.4174892361</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2180,7 +2171,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4174892361</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2212,7 +2203,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45906.4145865741</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2244,7 +2235,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.4145865741</x:v>
+        <x:v>45929.3840627662</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2276,7 +2267,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45929.3840627662</x:v>
+        <x:v>45906.4145188657</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2308,7 +2299,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.4145188657</x:v>
+        <x:v>45906.4146067477</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2340,7 +2331,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.4146067477</x:v>
+        <x:v>45912.543306169</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2372,7 +2363,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45912.543306169</x:v>
+        <x:v>45906.4142854167</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2404,7 +2395,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.4142854167</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2436,7 +2427,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45906.414388044</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2468,7 +2459,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.414388044</x:v>
+        <x:v>45931.4614775463</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2500,7 +2491,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45931.4614775463</x:v>
+        <x:v>45912.3415796644</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2532,7 +2523,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45912.3415796644</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2564,7 +2555,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45914.0585266204</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2581,38 +2572,6 @@
       <x:c r="R51" s="2" t="s"/>
       <x:c r="S51" s="2" t="s"/>
       <x:c r="T51" s="2" t="s"/>
-    </x:row>
-    <x:row r="52" spans="1:20">
-      <x:c r="A52" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B52" s="2" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="C52" s="2" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="D52" s="2" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="E52" s="3">
-        <x:v>45914.0585266204</x:v>
-      </x:c>
-      <x:c r="F52" s="2" t="s"/>
-      <x:c r="G52" s="2" t="s"/>
-      <x:c r="H52" s="2" t="s"/>
-      <x:c r="I52" s="2" t="s"/>
-      <x:c r="J52" s="2" t="s"/>
-      <x:c r="K52" s="2" t="s"/>
-      <x:c r="L52" s="2" t="s"/>
-      <x:c r="M52" s="2" t="s"/>
-      <x:c r="N52" s="2" t="s"/>
-      <x:c r="O52" s="2" t="s"/>
-      <x:c r="P52" s="2" t="s"/>
-      <x:c r="Q52" s="2" t="s"/>
-      <x:c r="R52" s="2" t="s"/>
-      <x:c r="S52" s="2" t="s"/>
-      <x:c r="T52" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS458_Lecture-35556.xlsx
+++ b/downloaded_files/CMPS458_Lecture-35556.xlsx
@@ -48,7 +48,7 @@
     <x:t>احمد محمد محمود محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohammed Mahmoud Mohammed</x:t>
+    <x:t>Ahmed Mohamed Mahmoud Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210044</x:t>
@@ -300,7 +300,7 @@
     <x:t>لؤى احمد كمال عبدالغفار عثمان</x:t>
   </x:si>
   <x:si>
-    <x:t>Loay Ahmed Kamal Abdul Ghaffar Othman</x:t>
+    <x:t>Loay Ahmed Kamal Abdelghafar Othman</x:t>
   </x:si>
   <x:si>
     <x:t>1210375</x:t>
@@ -345,7 +345,7 @@
     <x:t>محمد ممدوح سيد محمد السمرى</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohamed Mamdouh Sayed Mohamed</x:t>
+    <x:t>Mohamed Mamdouh Sayed Mohamed Elsemary</x:t>
   </x:si>
   <x:si>
     <x:t>1210291</x:t>
